--- a/data_analyst/10.HypothesisTesting/data/Quality.xlsx
+++ b/data_analyst/10.HypothesisTesting/data/Quality.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr date1904="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcochran\Dropbox\ASW Files\SBE\SBE 13e\Chapter 9 Camm\Webfiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="135" windowWidth="11415" windowHeight="5385" tabRatio="845"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Data"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -36,22 +31,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Geneva"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,7 +63,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -74,98 +82,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="008080FF"/>
-      <rgbColor rgb="00802060"/>
-      <rgbColor rgb="00FFFFC0"/>
-      <rgbColor rgb="00A0E0E0"/>
-      <rgbColor rgb="00600080"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000080C0"/>
-      <rgbColor rgb="00C0C0FF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="0069FFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="00A6CAF0"/>
-      <rgbColor rgb="00CC9CCC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00E3E3E3"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="00339933"/>
-      <rgbColor rgb="00999933"/>
-      <rgbColor rgb="00996633"/>
-      <rgbColor rgb="00996666"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="003333CC"/>
-      <rgbColor rgb="00336666"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00663300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00424242"/>
-    </indexedColors>
-  </colors>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -176,10 +112,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -214,74 +150,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -305,54 +241,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -362,7 +297,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -371,7 +306,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -380,7 +315,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -388,10 +323,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -420,7 +355,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -433,13 +368,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -458,457 +392,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" style="3" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="11.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2">
         <v>11.55</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>11.62</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>11.91</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>12.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2">
         <v>11.62</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>11.69</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>11.36</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>12.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2">
         <v>11.52</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>11.59</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>11.75</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>12.05</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2">
         <v>11.75</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>11.82</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>11.95</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>12.18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2">
         <v>11.9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>11.97</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>12.14</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>12.11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2">
         <v>11.64</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>11.71</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>11.72</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>12.07</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2">
         <v>11.8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>11.87</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>11.61</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>12.05</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2">
         <v>12.03</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>12.1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>11.85</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>11.64</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2">
         <v>11.94</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>12.01</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>12.16</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>12.39</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="2">
         <v>11.92</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>11.99</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>11.91</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>11.65</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2">
         <v>12.13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>12.2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>12.12</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>12.11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="2">
         <v>12.09</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>12.16</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>11.61</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>11.9</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2">
         <v>11.93</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>12.21</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>12.22</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2">
         <v>12.21</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>12.28</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>11.56</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>11.88</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="2">
         <v>12.32</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>12.39</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>11.95</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>12.03</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="2">
         <v>11.93</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>12</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>12.01</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>12.35</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2">
         <v>11.85</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>11.92</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>12.06</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>12.09</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2">
         <v>11.76</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>11.83</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>11.76</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>11.77</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="2">
         <v>12.16</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>12.23</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>11.82</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>12.2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="2">
         <v>11.77</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>11.84</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>12.12</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>11.79</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="2">
         <v>12</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>12.07</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>11.6</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>12.3</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="2">
         <v>12.04</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>12.11</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>11.95</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>12.27</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="2">
         <v>11.98</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>12.05</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>11.96</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>12.29</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="2">
         <v>12.3</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>12.37</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>12.22</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>12.47</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="2">
         <v>12.18</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>12.25</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>11.75</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>12.03</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="2">
         <v>11.97</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>12.04</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>11.96</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>12.17</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="2">
         <v>12.17</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>12.24</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>11.95</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>11.94</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="2">
         <v>11.85</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>11.92</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>11.89</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>11.97</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="2">
         <v>12.3</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>12.37</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>11.88</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>12.23</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="2">
         <v>12.15</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>12.22</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>11.93</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>12.25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>